--- a/excel2sbol/tests/test_files/pichia_comb_dev_compiler_sbol3.xlsx
+++ b/excel2sbol/tests/test_files/pichia_comb_dev_compiler_sbol3.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21600" windowHeight="9700"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21600" windowHeight="9700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="9" r:id="rId1"/>
     <sheet name="column_definitions" sheetId="6" r:id="rId2"/>
     <sheet name="Library2" sheetId="10" r:id="rId3"/>
     <sheet name="Library" sheetId="1" r:id="rId4"/>
-    <sheet name="Object_Types" sheetId="7" r:id="rId5"/>
-    <sheet name="data_source" sheetId="5" r:id="rId6"/>
-    <sheet name="circular_types" sheetId="8" r:id="rId7"/>
-    <sheet name="role_terms" sheetId="2" r:id="rId8"/>
-    <sheet name="Organism Terms" sheetId="3" r:id="rId9"/>
-    <sheet name="Sequence_alteration_terms" sheetId="4" r:id="rId10"/>
+    <sheet name="molecule_types" sheetId="11" r:id="rId5"/>
+    <sheet name="Object_Types" sheetId="7" r:id="rId6"/>
+    <sheet name="data_source" sheetId="5" r:id="rId7"/>
+    <sheet name="circular_types" sheetId="8" r:id="rId8"/>
+    <sheet name="role_terms" sheetId="2" r:id="rId9"/>
+    <sheet name="Organism Terms" sheetId="3" r:id="rId10"/>
+    <sheet name="Sequence_alteration_terms" sheetId="4" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">role_terms!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">role_terms!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -33,14 +34,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mjnGOZ7SKMAJTHmc4KNXlRqG2wdQA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mjnGOZ7SKMAJTHmc4KNXlRqG2wdQA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7913" uniqueCount="7639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7940" uniqueCount="7648">
   <si>
     <t>Collection Name</t>
   </si>
@@ -23025,12 +23026,39 @@
   <si>
     <t>Excel2sbol_compiler_template_sbol3</t>
   </si>
+  <si>
+    <t>Molecule Type</t>
+  </si>
+  <si>
+    <t>sbol_type</t>
+  </si>
+  <si>
+    <t>molecule_types</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Identifiers URI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/SBO:0000251</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/SBO:0000250</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/SBO:0000252</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -23226,6 +23254,11 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="9">
@@ -23444,7 +23477,7 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -23504,6 +23537,8 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent6" xfId="3" builtinId="49"/>
@@ -23512,6 +23547,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -23529,16 +23581,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -23941,8 +23983,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:I15" totalsRowShown="0" headerRowDxfId="24">
-  <autoFilter ref="A10:I15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:I16" totalsRowShown="0" headerRowDxfId="24">
+  <autoFilter ref="A10:I16"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Sheet Name"/>
     <tableColumn id="2" name="Convert"/>
@@ -23959,8 +24001,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:P27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
-  <autoFilter ref="A1:P27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:P28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+  <autoFilter ref="A1:P28"/>
   <tableColumns count="16">
     <tableColumn id="16" name="Sheet Name" dataDxfId="4"/>
     <tableColumn id="1" name="Column Name" dataDxfId="3"/>
@@ -24003,11 +24045,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A19:O27">
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A19:P27">
+  <tableColumns count="16">
     <tableColumn id="1" name="Part Name"/>
     <tableColumn id="11" name="Collection" dataDxfId="5"/>
     <tableColumn id="16" name="SBOL Object Type" dataDxfId="20"/>
+    <tableColumn id="12" name="Molecule Type" dataDxfId="0"/>
     <tableColumn id="2" name="Role"/>
     <tableColumn id="15" name="Thing1" dataDxfId="19"/>
     <tableColumn id="14" name="SubComponents" dataCellStyle="Hyperlink"/>
@@ -24020,7 +24063,7 @@
     <tableColumn id="9" name="Target Organism"/>
     <tableColumn id="10" name="Circular"/>
     <tableColumn id="13" name="Data Source Composite">
-      <calculatedColumnFormula>Library!$J20&amp;":"&amp;Library!$K20</calculatedColumnFormula>
+      <calculatedColumnFormula>Library!$K20&amp;":"&amp;Library!$L20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -24225,13 +24268,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -24402,6 +24445,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>7641</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24412,6 +24472,1220 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:V231"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.3046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.3046875" customWidth="1"/>
+    <col min="2" max="2" width="8.53515625" customWidth="1"/>
+    <col min="3" max="3" width="12.69140625" customWidth="1"/>
+    <col min="4" max="4" width="8.53515625" customWidth="1"/>
+    <col min="5" max="5" width="13.69140625" customWidth="1"/>
+    <col min="6" max="26" width="8.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>7388</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>7389</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>7390</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7501</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>7391</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>7502</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>7392</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>7503</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>7393</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>7504</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>7394</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>7505</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>7395</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7506</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>7396</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7507</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>7397</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7508</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>7398</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7509</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>7399</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7510</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>7400</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>7401</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>7402</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>7403</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>7404</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>7405</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
+        <v>7406</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="24" t="s">
+        <v>7407</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
+        <v>7408</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>7409</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
+        <v>7410</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="24" t="s">
+        <v>7411</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
+        <v>7412</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>7413</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>7414</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="24" t="s">
+        <v>7415</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>7528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>7494</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>7529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="34" t="s">
+        <v>7493</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
@@ -24522,13 +25796,13 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -24722,34 +25996,32 @@
       <c r="P4" s="33"/>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
+      <c r="A5" t="s">
         <v>7610</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7531</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="57" t="s">
+        <v>7639</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>7640</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>7637</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>7535</v>
+        <v>7498</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>7500</v>
-      </c>
-      <c r="H5" s="32" t="b">
+        <v>7496</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="b">
+      <c r="J5" s="20" t="b">
         <v>0</v>
       </c>
       <c r="K5" s="20" t="b">
@@ -24758,46 +26030,46 @@
       <c r="L5" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>7612</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="M5" s="20" t="s">
+        <v>7641</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>7479</v>
+      </c>
+      <c r="O5" s="20" t="s">
         <v>7474</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>7632</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>7489</v>
-      </c>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>7610</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>7580</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>7581</v>
-      </c>
-      <c r="D6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7531</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>7637</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>7634</v>
+        <v>7535</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="35" t="s">
+        <v>7500</v>
+      </c>
       <c r="H6" s="32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="K6" s="20" t="b">
@@ -24806,29 +26078,37 @@
       <c r="L6" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="33"/>
+      <c r="M6" s="3" t="s">
+        <v>7612</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>7474</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>7632</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>7489</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>7610</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>7533</v>
+        <v>7580</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>7534</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>7476</v>
+        <v>7581</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>7637</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>7536</v>
+        <v>7634</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>7496</v>
+        <v>52</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="32" t="b">
@@ -24849,25 +26129,23 @@
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="33" t="s">
-        <v>7489</v>
-      </c>
+      <c r="P7" s="33"/>
     </row>
     <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
         <v>7610</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7475</v>
-      </c>
-      <c r="D8" s="22" t="s">
+        <v>7533</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>7534</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>7476</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>7498</v>
+        <v>7536</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>7496</v>
@@ -24876,10 +26154,10 @@
       <c r="H8" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="b">
+      <c r="I8" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="b">
+      <c r="J8" s="20" t="b">
         <v>0</v>
       </c>
       <c r="K8" s="20" t="b">
@@ -24888,36 +26166,38 @@
       <c r="L8" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="33"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="33" t="s">
+        <v>7489</v>
+      </c>
     </row>
     <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>7610</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>7477</v>
-      </c>
-      <c r="D9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7475</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>7476</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>7498</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>52</v>
+        <v>7496</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="32" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="b">
         <v>0</v>
@@ -24928,15 +26208,9 @@
       <c r="L9" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>7478</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>7479</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>7474</v>
-      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
       <c r="P9" s="33"/>
     </row>
     <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -24944,26 +26218,26 @@
         <v>7610</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7532</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>7477</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>7480</v>
+        <v>7476</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>7498</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>7496</v>
+        <v>52</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="32" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3" t="b">
         <v>0</v>
@@ -24974,9 +26248,15 @@
       <c r="L10" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>7478</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>7479</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>7474</v>
+      </c>
       <c r="P10" s="33"/>
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -24984,19 +26264,19 @@
         <v>7610</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7481</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7481</v>
+        <v>7532</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>7480</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>7498</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>7481</v>
+        <v>7496</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="32" t="b">
@@ -25014,6 +26294,9 @@
       <c r="L11" s="20" t="b">
         <v>0</v>
       </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="33"/>
     </row>
     <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -25021,7 +26304,7 @@
         <v>7610</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7481</v>
@@ -25051,50 +26334,30 @@
       <c r="L12" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
       <c r="P12" s="33"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
     </row>
     <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>7610</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>7482</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>7476</v>
+        <v>7481</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7481</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>7498</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>52</v>
+        <v>7481</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3" t="b">
         <v>0</v>
@@ -25111,21 +26374,36 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" t="s">
-        <v>7490</v>
-      </c>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
     </row>
     <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>7610</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7483</v>
-      </c>
-      <c r="D14" s="29" t="s">
+        <v>7482</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>7476</v>
       </c>
       <c r="E14" s="34" t="s">
@@ -25162,13 +26440,13 @@
         <v>7610</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>7531</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>7637</v>
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7483</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>7476</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>7498</v>
@@ -25176,14 +26454,12 @@
       <c r="F15" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="35" t="s">
-        <v>7500</v>
-      </c>
+      <c r="G15" s="34"/>
       <c r="H15" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" s="3" t="b">
-        <v>1</v>
       </c>
       <c r="J15" s="3" t="b">
         <v>0</v>
@@ -25194,42 +26470,40 @@
       <c r="L15" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M15" s="32" t="s">
-        <v>7573</v>
-      </c>
-      <c r="N15" s="32" t="s">
-        <v>7479</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>7474</v>
-      </c>
-      <c r="P15" s="33"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" t="s">
+        <v>7490</v>
+      </c>
     </row>
     <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
         <v>7610</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>7481</v>
+        <v>33</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>7531</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>7481</v>
+        <v>7637</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>7498</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>7481</v>
-      </c>
-      <c r="G16" s="34"/>
+        <v>52</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>7500</v>
+      </c>
       <c r="H16" s="32" t="b">
         <v>0</v>
       </c>
       <c r="I16" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3" t="b">
         <v>0</v>
@@ -25240,9 +26514,15 @@
       <c r="L16" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="M16" s="32" t="s">
+        <v>7573</v>
+      </c>
+      <c r="N16" s="32" t="s">
+        <v>7479</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>7474</v>
+      </c>
       <c r="P16" s="33"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -25250,23 +26530,21 @@
         <v>7610</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>7484</v>
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7481</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>7637</v>
+        <v>7481</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>7498</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>7496</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>7569</v>
-      </c>
+        <v>7481</v>
+      </c>
+      <c r="G17" s="34"/>
       <c r="H17" s="32" t="b">
         <v>0</v>
       </c>
@@ -25292,29 +26570,31 @@
         <v>7610</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>7485</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>7486</v>
+        <v>7484</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7637</v>
       </c>
       <c r="E18" s="34" t="s">
         <v>7498</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="34"/>
+        <v>7496</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>7569</v>
+      </c>
       <c r="H18" s="32" t="b">
         <v>0</v>
       </c>
       <c r="I18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="20" t="b">
         <v>0</v>
@@ -25322,55 +26602,55 @@
       <c r="L18" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>7487</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>7474</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>7488</v>
-      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="33"/>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="33" t="s">
-        <v>7614</v>
+        <v>7610</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>7473</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>7637</v>
+        <v>36</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>7485</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>7486</v>
       </c>
       <c r="E19" s="34" t="s">
         <v>7498</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>7496</v>
+        <v>52</v>
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="I19" s="32" t="b">
+      <c r="I19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="32" t="b">
+      <c r="L19" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="K19" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
+      <c r="M19" s="3" t="s">
+        <v>7487</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>7474</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>7488</v>
+      </c>
       <c r="P19" s="33"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -25378,10 +26658,10 @@
         <v>7614</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>7537</v>
+        <v>0</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>7539</v>
+        <v>7473</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>7637</v>
@@ -25418,16 +26698,16 @@
         <v>7614</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>7533</v>
+        <v>7537</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>7534</v>
+        <v>7539</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>7476</v>
+        <v>7637</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>7536</v>
+        <v>7498</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>7496</v>
@@ -25451,25 +26731,23 @@
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
-      <c r="P21" s="33" t="s">
-        <v>7489</v>
-      </c>
+      <c r="P21" s="33"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
         <v>7614</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>7628</v>
+        <v>7533</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>7532</v>
+        <v>7534</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>7480</v>
+        <v>7476</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>7498</v>
+        <v>7536</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>7496</v>
@@ -25493,26 +26771,28 @@
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
-      <c r="P22" s="33"/>
+      <c r="P22" s="33" t="s">
+        <v>7489</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
         <v>7614</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>29</v>
+        <v>7628</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>7481</v>
+        <v>7532</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>7481</v>
+        <v>7480</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>7498</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>7481</v>
+        <v>7496</v>
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="32" t="b">
@@ -25530,9 +26810,9 @@
       <c r="L23" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
       <c r="P23" s="33"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -25540,7 +26820,7 @@
         <v>7614</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>7481</v>
@@ -25570,9 +26850,9 @@
       <c r="L24" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
       <c r="P24" s="33"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -25580,23 +26860,23 @@
         <v>7614</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>7482</v>
+        <v>7481</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>7476</v>
+        <v>7481</v>
       </c>
       <c r="E25" s="34" t="s">
         <v>7498</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>52</v>
+        <v>7481</v>
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="32" t="b">
         <v>0</v>
@@ -25613,21 +26893,19 @@
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
-      <c r="P25" s="33" t="s">
-        <v>7490</v>
-      </c>
+      <c r="P25" s="33"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
         <v>7614</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>7483</v>
-      </c>
-      <c r="D26" s="50" t="s">
+        <v>7482</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>7476</v>
       </c>
       <c r="E26" s="34" t="s">
@@ -25663,14 +26941,14 @@
       <c r="A27" s="33" t="s">
         <v>7614</v>
       </c>
-      <c r="B27" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>7485</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>7486</v>
+      <c r="B27" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>7483</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>7476</v>
       </c>
       <c r="E27" s="34" t="s">
         <v>7498</v>
@@ -25679,55 +26957,97 @@
         <v>52</v>
       </c>
       <c r="G27" s="34"/>
-      <c r="H27" s="35" t="b">
+      <c r="H27" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="I27" s="35" t="b">
+      <c r="J27" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="33" t="s">
+        <v>7490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
+        <v>7614</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>7485</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>7486</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>7498</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="J27" s="35" t="b">
+      <c r="J28" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="K27" s="35" t="b">
+      <c r="K28" s="35" t="b">
         <v>0</v>
       </c>
-      <c r="L27" s="35" t="b">
+      <c r="L28" s="35" t="b">
         <v>0</v>
       </c>
-      <c r="M27" s="35" t="s">
+      <c r="M28" s="35" t="s">
         <v>7487</v>
       </c>
-      <c r="N27" s="35" t="s">
+      <c r="N28" s="35" t="s">
         <v>7474</v>
       </c>
-      <c r="O27" s="35" t="s">
+      <c r="O28" s="35" t="s">
         <v>7488</v>
       </c>
-      <c r="P27" s="51"/>
+      <c r="P28" s="51"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:L27">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="H2:L28">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-    <hyperlink ref="D9" r:id="rId2"/>
-    <hyperlink ref="D10" r:id="rId3"/>
-    <hyperlink ref="D13" r:id="rId4"/>
-    <hyperlink ref="D14" r:id="rId5"/>
-    <hyperlink ref="D5" r:id="rId6" display="http://sbols.org/v2#"/>
-    <hyperlink ref="D7" r:id="rId7"/>
-    <hyperlink ref="D18" r:id="rId8" display="https://wiki.synbiohub.org/wiki/Terms/synbiohub#"/>
-    <hyperlink ref="D22" r:id="rId9"/>
-    <hyperlink ref="D25" r:id="rId10"/>
-    <hyperlink ref="D26" r:id="rId11"/>
-    <hyperlink ref="D21" r:id="rId12"/>
-    <hyperlink ref="D27" r:id="rId13" display="https://wiki.synbiohub.org/wiki/Terms/synbiohub#"/>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D14" r:id="rId4"/>
+    <hyperlink ref="D15" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6" display="http://sbols.org/v2#"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D19" r:id="rId8" display="https://wiki.synbiohub.org/wiki/Terms/synbiohub#"/>
+    <hyperlink ref="D23" r:id="rId9"/>
+    <hyperlink ref="D26" r:id="rId10"/>
+    <hyperlink ref="D27" r:id="rId11"/>
+    <hyperlink ref="D22" r:id="rId12"/>
+    <hyperlink ref="D28" r:id="rId13" display="https://wiki.synbiohub.org/wiki/Terms/synbiohub#"/>
     <hyperlink ref="D2" r:id="rId14" display="http://sbols.org/v2#"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -26532,10 +27852,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD96"/>
+  <dimension ref="A1:AE96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -26551,7 +27871,8 @@
     <col min="9" max="9" width="15.53515625" customWidth="1"/>
     <col min="10" max="10" width="14.4609375" customWidth="1"/>
     <col min="11" max="11" width="9.921875" customWidth="1"/>
-    <col min="12" max="26" width="8.53515625" customWidth="1"/>
+    <col min="12" max="12" width="12.69140625" customWidth="1"/>
+    <col min="13" max="26" width="8.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -26853,7 +28174,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>22</v>
       </c>
@@ -26885,7 +28206,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -26900,7 +28221,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>24</v>
       </c>
@@ -26910,44 +28231,47 @@
       <c r="C19" s="18" t="s">
         <v>7537</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="54" t="s">
+        <v>7639</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>7533</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="G19" s="18" t="s">
         <v>7580</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="H19" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="I19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="J19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="K19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="L19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="M19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="N19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="18" t="s">
+      <c r="O19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="18" t="s">
+      <c r="P19" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>37</v>
       </c>
@@ -26955,41 +28279,44 @@
         <v>7626</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>7540</v>
+        <v>7538</v>
       </c>
       <c r="D20" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>1681</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="F20" s="20" t="s">
         <v>7599</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="20" t="s">
         <v>7591</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="K20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="37">
+      <c r="L20" s="37">
         <v>28252957</v>
-      </c>
-      <c r="L20" t="s">
-        <v>7494</v>
       </c>
       <c r="M20" t="s">
         <v>7494</v>
       </c>
-      <c r="N20" s="20" t="b">
+      <c r="N20" t="s">
+        <v>7494</v>
+      </c>
+      <c r="O20" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="O20" s="18" t="str">
-        <f>Library!$J20&amp;":"&amp;Library!$K20</f>
+      <c r="P20" s="18" t="str">
+        <f>Library!$K20&amp;":"&amp;Library!$L20</f>
         <v>PubMed:28252957</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>7584</v>
       </c>
@@ -26997,42 +28324,44 @@
         <v>7626</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>7540</v>
+        <v>7538</v>
       </c>
       <c r="D21" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>1681</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="F21" s="20" t="s">
         <v>7600</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="29"/>
+      <c r="H21" s="20" t="s">
         <v>7617</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="20" t="s">
         <v>7592</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="K21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K21" s="37">
+      <c r="L21" s="37">
         <v>28252958</v>
-      </c>
-      <c r="L21" t="s">
-        <v>7494</v>
       </c>
       <c r="M21" t="s">
         <v>7494</v>
       </c>
-      <c r="N21" s="20" t="b">
+      <c r="N21" t="s">
+        <v>7494</v>
+      </c>
+      <c r="O21" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="O21" s="18" t="str">
-        <f>Library!$J21&amp;":"&amp;Library!$K21</f>
+      <c r="P21" s="18" t="str">
+        <f>Library!$K21&amp;":"&amp;Library!$L21</f>
         <v>PubMed:28252958</v>
       </c>
-      <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -27045,8 +28374,9 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
-    </row>
-    <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE21" s="3"/>
+    </row>
+    <row r="22" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
         <v>7585</v>
       </c>
@@ -27054,40 +28384,42 @@
         <v>7626</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>7540</v>
+        <v>7538</v>
       </c>
       <c r="D22" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>1681</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="F22" s="20" t="s">
         <v>7601</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="20"/>
+      <c r="J22" s="20" t="s">
         <v>7593</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="K22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="37">
+      <c r="L22" s="37">
         <v>28252959</v>
-      </c>
-      <c r="L22" t="s">
-        <v>7494</v>
       </c>
       <c r="M22" t="s">
         <v>7494</v>
       </c>
-      <c r="N22" s="20" t="b">
+      <c r="N22" t="s">
+        <v>7494</v>
+      </c>
+      <c r="O22" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="O22" s="18" t="str">
-        <f>Library!$J22&amp;":"&amp;Library!$K22</f>
+      <c r="P22" s="18" t="str">
+        <f>Library!$K22&amp;":"&amp;Library!$L22</f>
         <v>PubMed:28252959</v>
       </c>
-      <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -27100,8 +28432,9 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
-    </row>
-    <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>7586</v>
       </c>
@@ -27111,38 +28444,40 @@
       <c r="C23" s="20" t="s">
         <v>7547</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
         <v>7602</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="G23" s="34" t="s">
         <v>7635</v>
       </c>
-      <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="20" t="s">
         <v>7594</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="K23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="37">
+      <c r="L23" s="37">
         <v>28252960</v>
-      </c>
-      <c r="L23" t="s">
-        <v>7494</v>
       </c>
       <c r="M23" t="s">
         <v>7494</v>
       </c>
-      <c r="N23" s="20" t="b">
+      <c r="N23" t="s">
+        <v>7494</v>
+      </c>
+      <c r="O23" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="O23" s="18" t="str">
-        <f>Library!$J23&amp;":"&amp;Library!$K23</f>
+      <c r="P23" s="18" t="str">
+        <f>Library!$K23&amp;":"&amp;Library!$L23</f>
         <v>PubMed:28252960</v>
       </c>
-      <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -27155,8 +28490,9 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
-    </row>
-    <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE23" s="3"/>
+    </row>
+    <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
         <v>7587</v>
       </c>
@@ -27164,40 +28500,42 @@
         <v>7626</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>7540</v>
+        <v>7538</v>
       </c>
       <c r="D24" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>1681</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="F24" s="20" t="s">
         <v>7603</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="20"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="20"/>
+      <c r="J24" s="20" t="s">
         <v>7595</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="K24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="37">
+      <c r="L24" s="37">
         <v>28252961</v>
-      </c>
-      <c r="L24" t="s">
-        <v>7494</v>
       </c>
       <c r="M24" t="s">
         <v>7494</v>
       </c>
-      <c r="N24" s="20" t="b">
+      <c r="N24" t="s">
+        <v>7494</v>
+      </c>
+      <c r="O24" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="O24" s="18" t="str">
-        <f>Library!$J24&amp;":"&amp;Library!$K24</f>
+      <c r="P24" s="18" t="str">
+        <f>Library!$K24&amp;":"&amp;Library!$L24</f>
         <v>PubMed:28252961</v>
       </c>
-      <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -27210,8 +28548,9 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
-    </row>
-    <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE24" s="3"/>
+    </row>
+    <row r="25" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
         <v>7588</v>
       </c>
@@ -27219,40 +28558,42 @@
         <v>7626</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>7540</v>
+        <v>7538</v>
       </c>
       <c r="D25" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>1681</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="F25" s="20" t="s">
         <v>7604</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="20"/>
+      <c r="J25" s="20" t="s">
         <v>7596</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="K25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="37">
+      <c r="L25" s="37">
         <v>28252962</v>
-      </c>
-      <c r="L25" t="s">
-        <v>7494</v>
       </c>
       <c r="M25" t="s">
         <v>7494</v>
       </c>
-      <c r="N25" s="20" t="b">
+      <c r="N25" t="s">
+        <v>7494</v>
+      </c>
+      <c r="O25" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="O25" s="18" t="str">
-        <f>Library!$J25&amp;":"&amp;Library!$K25</f>
+      <c r="P25" s="18" t="str">
+        <f>Library!$K25&amp;":"&amp;Library!$L25</f>
         <v>PubMed:28252962</v>
       </c>
-      <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -27265,8 +28606,9 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
-    </row>
-    <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE25" s="3"/>
+    </row>
+    <row r="26" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
         <v>7589</v>
       </c>
@@ -27274,40 +28616,42 @@
         <v>7626</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>7540</v>
+        <v>7538</v>
       </c>
       <c r="D26" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>1681</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="F26" s="20" t="s">
         <v>7605</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="20"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="20"/>
+      <c r="J26" s="20" t="s">
         <v>7597</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="K26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="37">
+      <c r="L26" s="37">
         <v>28252963</v>
-      </c>
-      <c r="L26" t="s">
-        <v>7494</v>
       </c>
       <c r="M26" t="s">
         <v>7494</v>
       </c>
-      <c r="N26" s="20" t="b">
+      <c r="N26" t="s">
+        <v>7494</v>
+      </c>
+      <c r="O26" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="O26" s="18" t="str">
-        <f>Library!$J26&amp;":"&amp;Library!$K26</f>
+      <c r="P26" s="18" t="str">
+        <f>Library!$K26&amp;":"&amp;Library!$L26</f>
         <v>PubMed:28252963</v>
       </c>
-      <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -27320,8 +28664,9 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
-    </row>
-    <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE26" s="3"/>
+    </row>
+    <row r="27" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
         <v>7590</v>
       </c>
@@ -27329,40 +28674,42 @@
         <v>7626</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>7540</v>
+        <v>7538</v>
       </c>
       <c r="D27" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>1681</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="F27" s="20" t="s">
         <v>7606</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="20"/>
+      <c r="J27" s="20" t="s">
         <v>7598</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="K27" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K27" s="37">
+      <c r="L27" s="37">
         <v>28252964</v>
-      </c>
-      <c r="L27" t="s">
-        <v>7494</v>
       </c>
       <c r="M27" t="s">
         <v>7494</v>
       </c>
-      <c r="N27" s="20" t="b">
+      <c r="N27" t="s">
+        <v>7494</v>
+      </c>
+      <c r="O27" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="O27" s="18" t="str">
-        <f>Library!$J27&amp;":"&amp;Library!$K27</f>
+      <c r="P27" s="18" t="str">
+        <f>Library!$K27&amp;":"&amp;Library!$L27</f>
         <v>PubMed:28252964</v>
       </c>
-      <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -27375,6 +28722,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
     </row>
     <row r="39" spans="14:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N39" s="3"/>
@@ -27710,9 +29058,9 @@
     <mergeCell ref="A11:F11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F23" r:id="rId1" display="https://synbiohub.org/public/igem/BBa_E0040/1,https://synbiohub.org/public/igem/BBa_E0032/1,https://synbiohub.org/public/igem/BBa_E0022/1"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://synbiohub.org/public/igem/BBa_E0040/1,https://synbiohub.org/public/igem/BBa_E0032/1,https://synbiohub.org/public/igem/BBa_E0022/1"/>
-    <hyperlink ref="G4" r:id="rId3" display="https://synbiohub.org/public/igem/BBa_E0040/1,https://synbiohub.org/public/igem/BBa_E0032/1,https://synbiohub.org/public/igem/BBa_E0022/1"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://synbiohub.org/public/igem/BBa_E0040/1,https://synbiohub.org/public/igem/BBa_E0032/1,https://synbiohub.org/public/igem/BBa_E0022/1"/>
+    <hyperlink ref="G4" r:id="rId2" display="https://synbiohub.org/public/igem/BBa_E0040/1,https://synbiohub.org/public/igem/BBa_E0032/1,https://synbiohub.org/public/igem/BBa_E0022/1"/>
+    <hyperlink ref="G23" r:id="rId3" display="https://synbiohub.org/public/igem/BBa_E0040/1,https://synbiohub.org/public/igem/BBa_E0032/1,https://synbiohub.org/public/igem/BBa_E0022/1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -27721,12 +29069,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>data_source!$B$2:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>J20:J27</xm:sqref>
+          <xm:sqref>K20:K27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
@@ -27738,13 +29086,13 @@
           <x14:formula1>
             <xm:f>Sequence_alteration_terms!$A$2:$A$19</xm:f>
           </x14:formula1>
-          <xm:sqref>H20:H27</xm:sqref>
+          <xm:sqref>I20:I27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Organism Terms'!$A$2:$A$32</xm:f>
           </x14:formula1>
-          <xm:sqref>L20:M27</xm:sqref>
+          <xm:sqref>M20:N27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -27756,13 +29104,19 @@
           <x14:formula1>
             <xm:f>role_terms!$B$2:$B$2518</xm:f>
           </x14:formula1>
-          <xm:sqref>D20:D27</xm:sqref>
+          <xm:sqref>E20:E27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>circular_types!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>N20:N27</xm:sqref>
+          <xm:sqref>O20:O27</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>molecule_types!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>D20:D27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -27775,10 +29129,66 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A1048543" workbookViewId="0">
+      <selection activeCell="E1048573" sqref="E1048573"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
+        <v>7643</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>7644</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>7645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7642</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5244</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>7646</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -28015,7 +29425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
@@ -28259,7 +29669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
@@ -28302,7 +29712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
@@ -70845,1218 +72255,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:V231"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.3046875" customWidth="1"/>
-    <col min="2" max="2" width="8.53515625" customWidth="1"/>
-    <col min="3" max="3" width="12.69140625" customWidth="1"/>
-    <col min="4" max="4" width="8.53515625" customWidth="1"/>
-    <col min="5" max="5" width="13.69140625" customWidth="1"/>
-    <col min="6" max="26" width="8.53515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>7388</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>7389</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-    </row>
-    <row r="2" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>7390</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7501</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
-        <v>7391</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>7502</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
-        <v>7392</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>7503</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>7393</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>7504</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
-        <v>7394</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>7505</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
-        <v>7395</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7506</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>7396</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7507</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
-        <v>7397</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7508</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
-        <v>7398</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7509</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
-        <v>7399</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7510</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
-        <v>7400</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
-        <v>7401</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>7512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
-        <v>7402</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
-        <v>7403</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7514</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
-        <v>7404</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7515</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="24" t="s">
-        <v>7405</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7516</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
-        <v>7406</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>7517</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="24" t="s">
-        <v>7407</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="24" t="s">
-        <v>7408</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
-        <v>7409</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>7520</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="24" t="s">
-        <v>7410</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>7521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
-        <v>7411</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>7522</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="24" t="s">
-        <v>7412</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>7523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>7524</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>7413</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>7525</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>7414</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>7526</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="24" t="s">
-        <v>7415</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>7527</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>7528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>7494</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>7529</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
-        <v>7493</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>7530</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-    </row>
-    <row r="89" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-    </row>
-    <row r="90" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-    </row>
-    <row r="92" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-    </row>
-    <row r="109" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-    </row>
-    <row r="114" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-    </row>
-    <row r="117" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-    </row>
-    <row r="119" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-    </row>
-    <row r="132" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-    </row>
-    <row r="133" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-    </row>
-    <row r="135" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-    </row>
-    <row r="137" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-    </row>
-    <row r="138" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-    </row>
-    <row r="139" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-    </row>
-    <row r="140" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-    </row>
-    <row r="141" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-    </row>
-    <row r="142" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-    </row>
-    <row r="143" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-    </row>
-    <row r="144" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-    </row>
-    <row r="145" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-    </row>
-    <row r="146" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-    </row>
-    <row r="147" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-    </row>
-    <row r="148" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-    </row>
-    <row r="149" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-    </row>
-    <row r="150" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-    </row>
-    <row r="151" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-    </row>
-    <row r="152" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-    </row>
-    <row r="153" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-    </row>
-    <row r="154" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-    </row>
-    <row r="156" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-    </row>
-    <row r="157" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-    </row>
-    <row r="158" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-    </row>
-    <row r="159" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-    </row>
-    <row r="160" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-    </row>
-    <row r="161" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-    </row>
-    <row r="162" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-    </row>
-    <row r="163" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-    </row>
-    <row r="164" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-    </row>
-    <row r="165" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-    </row>
-    <row r="166" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-    </row>
-    <row r="167" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-    </row>
-    <row r="168" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-    </row>
-    <row r="169" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-    </row>
-    <row r="170" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-    </row>
-    <row r="171" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-    </row>
-    <row r="172" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-    </row>
-    <row r="173" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-    </row>
-    <row r="174" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-    </row>
-    <row r="175" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-    </row>
-    <row r="176" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-    </row>
-    <row r="177" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-    </row>
-    <row r="178" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-    </row>
-    <row r="179" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-    </row>
-    <row r="180" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-    </row>
-    <row r="181" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-    </row>
-    <row r="182" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-    </row>
-    <row r="183" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-    </row>
-    <row r="184" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-    </row>
-    <row r="185" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-    </row>
-    <row r="186" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-    </row>
-    <row r="187" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-    </row>
-    <row r="188" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-    </row>
-    <row r="189" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-    </row>
-    <row r="190" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-    </row>
-    <row r="191" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-    </row>
-    <row r="192" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-    </row>
-    <row r="193" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-    </row>
-    <row r="194" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-    </row>
-    <row r="195" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-    </row>
-    <row r="196" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-    </row>
-    <row r="197" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-    </row>
-    <row r="198" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-    </row>
-    <row r="199" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-    </row>
-    <row r="200" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-    </row>
-    <row r="201" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-    </row>
-    <row r="202" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-    </row>
-    <row r="203" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-    </row>
-    <row r="204" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-    </row>
-    <row r="205" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-    </row>
-    <row r="206" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-    </row>
-    <row r="207" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-    </row>
-    <row r="208" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-    </row>
-    <row r="209" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-    </row>
-    <row r="210" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-    </row>
-    <row r="211" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-    </row>
-    <row r="212" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-    </row>
-    <row r="213" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-    </row>
-    <row r="214" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-    </row>
-    <row r="215" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-    </row>
-    <row r="216" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-    </row>
-    <row r="217" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-    </row>
-    <row r="218" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-    </row>
-    <row r="219" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-    </row>
-    <row r="220" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-    </row>
-    <row r="221" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-    </row>
-    <row r="222" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-    </row>
-    <row r="223" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-    </row>
-    <row r="224" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-    </row>
-    <row r="225" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-    </row>
-    <row r="226" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-    </row>
-    <row r="227" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-    </row>
-    <row r="228" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-    </row>
-    <row r="229" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-    </row>
-    <row r="230" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-    </row>
-    <row r="231" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>